--- a/Barbie_Financiera_FASE_2/BF-0042/BF-0042 Escenarios y Casos de Prueba.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0042/BF-0042 Escenarios y Casos de Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\FASE 2\BF-0042\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0042\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8ED8E7-667D-4672-9869-73672C7A9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27540048-C430-4E8E-96D8-8C2FF74CDAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="765" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Criterios de Aceptación</t>
   </si>
@@ -72,213 +72,213 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>El usuario ha iniciado sesión en el sistema</t>
-  </si>
-  <si>
-    <t>CP001</t>
-  </si>
-  <si>
-    <t>CP002</t>
-  </si>
-  <si>
-    <t>CP004</t>
-  </si>
-  <si>
-    <t>CP005</t>
-  </si>
-  <si>
-    <t>CP006</t>
-  </si>
-  <si>
-    <t>CP007</t>
-  </si>
-  <si>
-    <t>CP003</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>Ingresar un valor negativo como ingreso neto mensual</t>
-  </si>
-  <si>
-    <t>Crear una nueva categoría de gasto y asignar un monto</t>
-  </si>
-  <si>
-    <t>Asignar montos a categorías predefinidas</t>
-  </si>
-  <si>
-    <t>Ingresar un valor positivo como ingreso neto mensual en el campo correspondiente y verificar que el sistema lo acepte sin mostrar errores.</t>
-  </si>
-  <si>
-    <t>Ingresar un ingreso neto mensual positivo</t>
-  </si>
-  <si>
-    <t>El usuario ha iniciado sesión en el sistema y está en la página de creación de ingreso.</t>
-  </si>
-  <si>
-    <t>El sistema acepta el valor ingresado, y el presupuesto se guarda correctamente sin mensajes de error.</t>
-  </si>
-  <si>
-    <t>Ingresar un valor negativo en el campo de ingreso neto mensual y verificar que el sistema muestre un mensaje de error.</t>
-  </si>
-  <si>
-    <t>Ingreso neto mensual: -1000</t>
-  </si>
-  <si>
-    <t>1. Hacer log in con los datos 'admin' y 'password'
-2. Elegir mes actual en la lista, pulsar “Agregar Mes” y luego “Continuar”
-3. Ingresar el valor "-$1000" en el campo de ingreso neto mensual.
-4. Pulsar el botón de "Continuar".</t>
-  </si>
-  <si>
-    <t>1. Hacer log in con los datos 'admin' y 'password'
-2. Elegir mes actual en la lista, pulsar “Agregar Mes” y luego “Continuar”
-3. Ingresar el valor "$2000" en el campo de ingreso neto mensual.
-4. Pulsar el botón de "Continuar".</t>
-  </si>
-  <si>
-    <t>Ingreso neto mensual: $2000</t>
-  </si>
-  <si>
-    <t>El sistema muestra un mensaje de error indicando que el ingreso neto mensual no puede ser negativo y no permite guardar.</t>
-  </si>
-  <si>
-    <t>Crear una nueva categoría de gasto y asignar un monto positivo, verificando que la categoría y el monto se guarden correctamente..</t>
-  </si>
-  <si>
-    <t>El sistema guarda la nueva categoría "Videojuegos" con el monto de 100 y da un mensaje de confirmación.</t>
-  </si>
-  <si>
-    <t>El usuario ha iniciado sesión en el sistema, ingresado sus ingresos mensuales y está en la página de creación de categorias.</t>
-  </si>
-  <si>
-    <t>Asignar montos a categorías de gasto predefinidas y verificar que los montos se guarden correctamente en el presupuesto.</t>
-  </si>
-  <si>
-    <t>Nombre de categoría: "Videojuegos"
-Monto asignado: 101</t>
-  </si>
-  <si>
-    <t>Alimentación: 300</t>
-  </si>
-  <si>
-    <t>Categorías predefinidas:
-Transporte: 500
-Alimentación: 300
-Salud: 100</t>
-  </si>
-  <si>
-    <t>1. Dirigirse a la página de creación de categorias.
-2. Seleccionar la opción de "Agregar nueva categoría".
-3. Ingresar el nombre "Videojeugos" en el campo de nombre de categoría.
-4. Ingresar "100" en el campo de monto asignado.
-5. Pulsar el botón de "Guardar".</t>
-  </si>
-  <si>
-    <t>1. Dirigirse a la página de creación de categoria.
-2. Ingresar "500" en el campo de la categoría predefinida "Transporte".
-3. Ingresar "300" en el campo de la categoría predefinida "Alimentación".
-4. Ingresar "100" en el campo de la categoría predefinida "Salud".
-5. Pulsar el botón de "Guardar".</t>
-  </si>
-  <si>
-    <t>El sistema guarda correctamente los montos asignados a cada categoría predefinida, y muestra el presupuesto con las categorías y sus montos.</t>
-  </si>
-  <si>
-    <t>Asignar monto a una categoría que supere el ingreso neto mensual</t>
-  </si>
-  <si>
-    <t>Asignar un monto a una sola categoría de gasto que exceda el ingreso neto mensual y verificar que el sistema muestre un mensaje de error.</t>
-  </si>
-  <si>
-    <t>El sistema muestra un mensaje de error indicando que el monto asignado a la categoría excede el ingreso neto mensual y no permite guardar el presupuesto.</t>
-  </si>
-  <si>
-    <t>Ingreso neto mensual: 1000 Categoría:
-Alimentacion: 1500</t>
-  </si>
-  <si>
-    <t>1. Dirigirse a la página de creación de ingreso.
-2. Ingresar "1000" en el campo de ingreso neto mensual.
-3. Dirigirse a la página de creación de categoría.
-4. Ingresar "1500" en la categoría "Alimentacion".
-5. Pulsar el botón de "Guardar".</t>
-  </si>
-  <si>
-    <t>Visualizar el presupuesto creado y verificar categorías</t>
-  </si>
-  <si>
-    <t>Visualizar el presupuesto creado y verificar que se muestren todas las categorías de gasto con los montos asignados.</t>
-  </si>
-  <si>
-    <t>El usuario ha iniciado sesión en el sistema y ha creado un presupuesto previamente.</t>
-  </si>
-  <si>
-    <t>Categorías:</t>
-  </si>
-  <si>
-    <t>1. Dirigirse a la página de creación de categoria.
-2. Ingresar "500" en el campo de la categoría predefinida "Transporte".
-3. Ingresar "300" en el campo de la categoría predefinida "Alimentación".
-4. Ingresar "100" en el campo de la categoría predefinida "Salud".
-5. Pulsar el botón de "Guardar". 6  Seleccionar "Ver Categorias"</t>
-  </si>
-  <si>
-    <t>El sistema muestra todas las categorías de gasto ingresadas en el presupuesto (Transporte, Alimentación, Salud) con sus respectivos montos.</t>
-  </si>
-  <si>
-    <t>Salud: 100</t>
-  </si>
-  <si>
-    <t>Transporte: 500</t>
-  </si>
-  <si>
-    <t>El usuario ha iniciado sesión en el sistema y tiene un presupuesto guardado.</t>
-  </si>
-  <si>
-    <t>2. Seleccionar el presupuesto que se desea editar.</t>
-  </si>
-  <si>
-    <t>3. Buscar la opción o botón para editar el monto de la categoría "Alimentación".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar monto en una categoría ya guardada </t>
-  </si>
-  <si>
-    <t>Intentar editar el monto en una categoría ya guardada y verificar que el sistema permita la edición.</t>
+    <t>Modificar los montos asignados a cada categoría</t>
+  </si>
+  <si>
+    <t>Recalcular automáticamente el balance al realizar cambios</t>
+  </si>
+  <si>
+    <t>Cambios en el presupuesto deben guardarse automáticamente</t>
+  </si>
+  <si>
+    <t>Nuevos montos no excedan el ingreso mensual disponible</t>
+  </si>
+  <si>
+    <t>Editar el monto en una categoría creada por el usuario.</t>
+  </si>
+  <si>
+    <t>Modificar el monto de una categoría predefinida por el sistema.</t>
+  </si>
+  <si>
+    <t>Actualizar el monto de una categoría y verificar que el sistema recalcula el balance general</t>
+  </si>
+  <si>
+    <t>Modificar una categoría y confirmar el cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0042CP007</t>
+  </si>
+  <si>
+    <t>Editar el monto de una categoria hecha por el usuario con un valor positivo.</t>
+  </si>
+  <si>
+    <t>Editar el monto de una categoria hecha por el usuario con un valor negativo.</t>
+  </si>
+  <si>
+    <t>Modificar una categoría predefinida, verificando que el sistema permita editar.</t>
+  </si>
+  <si>
+    <t>Ingresar un valor alfanumérico o inválido en el campo de editar monto de una categoría preedefinida.</t>
+  </si>
+  <si>
+    <t>Actualizar el monto de una categoría a un valor mayor y verificar que el sistema recalcula el balance general al instante.</t>
+  </si>
+  <si>
+    <t>Modificar una categoría y confirmar el cambio, luego cerrar sesión y volver a iniciar sesión para verificar que el cambio se haya guardado.</t>
+  </si>
+  <si>
+    <t>Modificar el monto de una categoría personalizada creada por el usuario con un valor positivo y verificar que el sistema acepte el cambio.</t>
+  </si>
+  <si>
+    <t>El usuario ha iniciado sesión en el sistema y tiene un presupuesto guardado con al menos una categoría personalizada.</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: 2000
+Categoría personalizada: "Netlfix" con monto inicial de $10</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario modificar el monto de la categoría "Netflix" a $20 y recalcula el presupuesto general automáticamente. El cambio se guarda correctamente.</t>
+  </si>
+  <si>
+    <t>1. Dirigirse a la página de Detalles.
+2. Revisar que diga "Netflix" monto de $10
+3. Irse al menú y elegir Editar Categoria, seleccionar Netflx
+4. Ingresar un valor positivo (ej. $20) en el campo de la categoría "Netflix".
+5. Confirmar los cambios en el presupuesto.</t>
+  </si>
+  <si>
+    <t>Intentar modificar el monto de una categoría personalizada con un valor negativo y verificar que el sistema no lo permita.</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: 2000
+Categoría personalizada: "Netlfix" con monto inicial de $20</t>
+  </si>
+  <si>
+    <t>1. Dirigirse a la página de Detalles.
+2. Revisar que diga "Netflix" con monto de $20.
+3. Ir al menú y elegir "Editar Categoría", seleccionando "Netflix".
+4. Ingresar un valor negativo (ej. -$20) en el campo de la categoría "Netflix".
+5. Intentar confirmar los cambios en el presupuesto.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje de error indicando que el monto no puede ser negativo, y no permite guardar el cambio en el presupuesto.</t>
+  </si>
+  <si>
+    <t>Modificar el monto de una categoría predefinida y verificar que el sistema permita realizar la edición correctamente.</t>
+  </si>
+  <si>
+    <t>El usuario ha iniciado sesión en el sistema y tiene un presupuesto guardado con al menos una categoría predefinida.</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: 2000
+Categoría predefinida: "Transporte" con monto inicial de $300</t>
+  </si>
+  <si>
+    <t>1. Dirigirse a la página de Detalles.
+2. Revisar que la categoría "Transporte" tenga un monto de $300.
+3. Ir al menú y seleccionar "Editar Categoría", eligiendo "Transporte".
+4. Ingresar un nuevo monto positivo (ej. $350) en el campo de la categoría "Transporte".
+5. Confirmar los cambios en el presupuesto.</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario modificar el monto de la categoría "Transporte" a $350 y recalcula el presupuesto general automáticamente. El cambio se guarda correctamente.</t>
+  </si>
+  <si>
+    <t>ngresar un valor alfanumérico o inválido en el campo de edición de una categoría predefinida y verificar que el sistema lo rechace.</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: 2000
+Categoría predefinida: "Transporte" con monto inicial de $350</t>
+  </si>
+  <si>
+    <t>1. Dirigirse a la página de Detalles.
+2. Revisar que la categoría "Transporte" tenga un monto de $350.
+3. Ir al menú y seleccionar "Editar Categoría", eligiendo "Transporte".
+4. Ingresar un nuevo monto alfanumérico o inválido (ej. $#) en el campo de la categoría "Transporte".
+5. Intentar confirmar los cambios en el presupuesto.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje de error indicando que el valor ingresado es inválido y no permite guardar el cambio. El monto de la categoría "Transporte" permanece sin cambios.</t>
+  </si>
+  <si>
+    <t>Actualizar el monto de una categoría predefinida a un valor mayor y verificar que el sistema recalcula el balance general automáticamente.</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: $2000
+Categoría predefinida: "Alimentación" con monto inicial de $300</t>
+  </si>
+  <si>
+    <t>1. Dirigirse a la página de Detalles.
+2. Verificar que la categoría "Alimentación" tiene un monto de $300 y el balance general refleje los montos actuales.
+3. Ir al menú y seleccionar "Editar Categoría", eligiendo "Alimentación".
+4. Ingresar un nuevo monto mayor (ej. $500) en el campo de la categoría "Alimentación".
+5. Confirmar los cambios en el presupuesto.</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario modificar el monto de la categoría "Alimentación" a $500 y recalcula el balance general automáticamente. El balance general actualizado se refleja al instante en la pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignar a una categoría un monto </t>
+  </si>
+  <si>
+    <t>Modificar el monto de una categoría predefinida y verificar que el cambio persista tras cerrar sesión y volver a iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: $2000
+Categoría predefinida: "Transporte" con monto inicial de $150</t>
+  </si>
+  <si>
+    <t>1. Dirigirse a la página de Detalles.</t>
+  </si>
+  <si>
+    <t>2. Verificar que la categoría "Transporte" tiene un monto inicial de $150.</t>
+  </si>
+  <si>
+    <t>3. Ir al menú y seleccionar "Editar Categoría", eligiendo "Transporte".</t>
+  </si>
+  <si>
+    <t>4. Ingresar un nuevo monto (ej. $200) en el campo de la categoría "Transporte".</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario modificar el monto de la categoría "Transporte" a $200 y guarda el cambio. Al cerrar sesión y volver a iniciar sesión, el monto de $200 en "Transporte" permanece, mostrando que el cambio se ha guardado correctamente.</t>
+  </si>
+  <si>
+    <t>Intentar modificar el monto de una categoría existente para que exceda el ingreso mensual</t>
+  </si>
+  <si>
+    <t>Intentar modificar el monto de una categoría existente en el presupuesto para que el total de todas las categorías sobrepase el ingreso mensual, verificando que el sistema no lo permita.</t>
+  </si>
+  <si>
+    <t>El usuario ha iniciado sesión en el sistema y tiene un presupuesto guardado con al menos dos categorías.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje de error indicando que la modificación del monto excede el ingreso mensual disponible y no permite guardar el cambio.</t>
   </si>
   <si>
     <t>1. Dirigirse a la página de presupuestos guardados.
-2. Seleccionar el presupuesto que se desea editar.
-3. Buscar la opción o botón para editar el monto de la categoría "Alimentación".</t>
-  </si>
-  <si>
-    <t>El sistema debería permitir al usuario editar el monto en la categoría "Alimentación".</t>
-  </si>
-  <si>
-    <t>Modificar los montos asignados a cada categoría</t>
-  </si>
-  <si>
-    <t>Recalcular automáticamente el balance al realizar cambios</t>
-  </si>
-  <si>
-    <t>Cambios en el presupuesto deben guardarse automáticamente</t>
-  </si>
-  <si>
-    <t>Nuevos montos no excedan el ingreso mensual disponible</t>
-  </si>
-  <si>
-    <t>Editar el monto en una categoría creada por el usuario.</t>
-  </si>
-  <si>
-    <t>Modificar el monto de una categoría predefinida por el sistema.</t>
-  </si>
-  <si>
-    <t>Actualizar el monto de una categoría y verificar que el sistema recalcula el balance general</t>
+2. Seleccionar el presupuesto actual.
+3. Editar la categoría "Alimentacion" para aumentar su monto a $1800.
+4. Confirmar el cambio en la categoría "Alquiler".</t>
+  </si>
+  <si>
+    <t>Ingreso neto mensual: $2000
+Categorías iniciales:
+Alimentacion: $1500
+Transporte: $500</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -526,144 +526,144 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -676,29 +676,32 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,8 +1869,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14" customHeight="1"/>
@@ -1895,113 +1898,113 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.5" customHeight="1">
-      <c r="A2" s="43">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="43">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.5" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="22" t="s">
-        <v>13</v>
+      <c r="C3" s="21"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23" customHeight="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="41"/>
-      <c r="C4" s="43">
+      <c r="C4" s="20">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="22" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="8" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A7" s="48">
+        <v>2</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="8" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="51">
-        <v>2</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="C7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>18</v>
+      <c r="D7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="10" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="9" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="25" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="12.5" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1">
       <c r="A11" s="38">
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C11" s="34">
         <v>4</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="27" t="s">
-        <v>15</v>
+      <c r="D11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1">
@@ -2011,47 +2014,45 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A13" s="28">
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="1:6" ht="8.5" customHeight="1">
+      <c r="A13" s="32">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="28">
-        <v>6</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30" t="s">
+      <c r="B13" s="33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A14" s="28">
+      <c r="C13" s="60">
+        <v>5</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.5" customHeight="1">
+      <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" ht="16">
-      <c r="A15" s="28">
+      <c r="B14" s="33"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="8">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="41" customHeight="1">
       <c r="A16"/>
@@ -2059,7 +2060,7 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="16" hidden="1" customHeight="1">
       <c r="A17"/>
@@ -2067,7 +2068,7 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="12.5">
       <c r="A18"/>
@@ -2075,7 +2076,7 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="12.5">
       <c r="A19"/>
@@ -2083,7 +2084,7 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="12.5">
       <c r="A20"/>
@@ -2091,52 +2092,51 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="12.5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="14" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="14" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D7:D10"/>
+  <mergeCells count="23">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C11:C12"/>
@@ -2149,12 +2149,12 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2172,293 +2172,289 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="A6:H6"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" style="2" customWidth="1"/>
     <col min="8" max="9" width="16.36328125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="16.36328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="87">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" ht="151" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="139" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="153" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="149.5" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="152.5" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="139" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="101.5">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" ht="149.5" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="109" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1">
       <c r="A8" s="56"/>
-      <c r="B8" s="61"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="61"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" ht="53" customHeight="1">
       <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="60"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="57.5" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5">
       <c r="A12" s="56"/>
-      <c r="B12" s="61"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
-      <c r="F12" s="54" t="s">
-        <v>58</v>
-      </c>
+      <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:9" ht="15.5">
+    <row r="13" spans="1:9" ht="71" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="61"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="54" t="s">
-        <v>59</v>
-      </c>
+      <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
@@ -2482,7 +2478,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:9" ht="15.5">
+    <row r="16" spans="1:9" ht="52.5" customHeight="1">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2512,7 +2508,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="14" customHeight="1">
+    <row r="19" spans="1:8" ht="109" customHeight="1">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2529,7 +2525,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="F7:F10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -2539,6 +2534,7 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G7:G10"/>
+    <mergeCell ref="E7:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H13">
